--- a/BackTest/2020-01-23 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-23 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,14 +550,10 @@
         <v>-2545.4800036</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2209</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2209</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
@@ -590,14 +586,8 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>2209</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -629,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>2209</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -896,14 +880,10 @@
         <v>-1686.6395036</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2209</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2209</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -936,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>2209</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -975,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>2209</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1011,14 +979,10 @@
         <v>-1686.6395036</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2209</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2209</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
@@ -1051,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>2209</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1090,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>2209</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1129,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>2209</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1168,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>2209</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1207,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>2209</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1246,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>2209</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1285,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>2209</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1324,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>2209</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1363,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>2209</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1402,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>2209</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1441,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>2209</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1480,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>2209</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1519,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>2209</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1558,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>2209</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1597,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>2209</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1636,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>2209</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1675,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>2209</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1711,15 +1573,15 @@
         <v>-12406.9949036</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>2209</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2173</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -1750,14 +1612,12 @@
         <v>-12388.3919036</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>2178</v>
       </c>
-      <c r="J37" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1791,14 +1651,12 @@
         <v>-7758.025903599999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>2179</v>
       </c>
-      <c r="J38" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1832,14 +1690,12 @@
         <v>-5164.185703599998</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>2197</v>
       </c>
-      <c r="J39" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1873,14 +1729,12 @@
         <v>-7161.720803599998</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>2208</v>
       </c>
-      <c r="J40" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1914,14 +1768,12 @@
         <v>-6861.594003599998</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>2198</v>
       </c>
-      <c r="J41" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1955,14 +1807,10 @@
         <v>-7410.425003599998</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2205</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2209</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1999,9 +1847,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2035,14 +1881,10 @@
         <v>-5298.417203599998</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2203</v>
-      </c>
-      <c r="J44" t="n">
-        <v>2209</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2079,9 +1921,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2115,14 +1955,10 @@
         <v>-4459.800003599998</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2213</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2209</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2159,9 +1995,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2198,9 +2032,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2237,9 +2069,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2276,9 +2106,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2315,9 +2143,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2354,9 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2393,9 +2217,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2432,9 +2254,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2471,9 +2291,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2510,9 +2328,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2549,9 +2365,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2588,9 +2402,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2627,9 +2439,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2666,9 +2476,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2705,9 +2513,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2744,9 +2550,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2783,9 +2587,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2822,9 +2624,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2861,9 +2661,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2900,9 +2698,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2939,9 +2735,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2978,9 +2772,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3017,9 +2809,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3056,9 +2846,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3095,9 +2883,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3134,9 +2920,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3173,9 +2957,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3212,9 +2994,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3251,9 +3031,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3290,9 +3068,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3329,9 +3105,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3368,9 +3142,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3407,9 +3179,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3446,9 +3216,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3485,9 +3253,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3524,9 +3290,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3563,9 +3327,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3602,9 +3364,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3641,9 +3401,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3680,9 +3438,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3719,9 +3475,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3758,9 +3512,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3797,9 +3549,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3836,9 +3586,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3875,9 +3623,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3914,9 +3660,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3953,9 +3697,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3992,9 +3734,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4031,9 +3771,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4067,14 +3805,10 @@
         <v>-1715.996744689998</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>2219</v>
-      </c>
-      <c r="J96" t="n">
-        <v>2209</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4111,9 +3845,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4150,9 +3882,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4189,9 +3919,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4228,9 +3956,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4267,9 +3993,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4306,9 +4030,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4345,9 +4067,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4384,9 +4104,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4423,9 +4141,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4462,9 +4178,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4501,9 +4215,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4540,9 +4252,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4579,9 +4289,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4618,9 +4326,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4657,9 +4363,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4696,9 +4400,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4735,9 +4437,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4774,9 +4474,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4813,9 +4511,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4852,9 +4548,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4891,9 +4585,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4930,9 +4622,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4969,9 +4659,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5008,9 +4696,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5047,9 +4733,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5086,9 +4770,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5125,9 +4807,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5164,9 +4844,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5203,9 +4881,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5242,9 +4918,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5281,9 +4955,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5320,9 +4992,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5359,9 +5029,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5398,9 +5066,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5437,9 +5103,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5476,9 +5140,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5512,19 +5174,17 @@
         <v>-6967.80724872</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>2209</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.004053870529652</v>
+        <v>1</v>
       </c>
       <c r="M133" t="inlineStr"/>
     </row>
@@ -5551,11 +5211,15 @@
         <v>-7146.33024872</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5588,7 +5252,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5621,7 +5289,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5654,7 +5326,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5687,7 +5363,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5720,7 +5400,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5753,7 +5437,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5786,7 +5474,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5819,7 +5511,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5852,7 +5548,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5885,7 +5585,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5918,7 +5622,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5951,7 +5659,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5984,7 +5696,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6013,11 +5729,15 @@
         <v>1745.327835670001</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6050,7 +5770,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6079,11 +5803,15 @@
         <v>2061.217496810001</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6116,7 +5844,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6145,11 +5877,15 @@
         <v>2070.006096810001</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6178,11 +5914,15 @@
         <v>1920.340996810001</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6211,11 +5951,15 @@
         <v>1920.340996810001</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6248,7 +5992,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6277,11 +6025,15 @@
         <v>1918.340996810001</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6314,7 +6066,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6347,7 +6103,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6380,7 +6140,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6413,7 +6177,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6446,7 +6214,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6479,7 +6251,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6512,7 +6288,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6541,11 +6321,15 @@
         <v>2789.64997905</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6578,7 +6362,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6611,7 +6399,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6640,11 +6432,15 @@
         <v>820.3169275600003</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6673,11 +6469,15 @@
         <v>2161.35282756</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6706,11 +6506,15 @@
         <v>2144.35282756</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6743,7 +6547,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6776,7 +6584,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6809,7 +6621,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6842,7 +6658,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6875,7 +6695,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6908,7 +6732,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6941,7 +6769,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6974,7 +6806,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7007,7 +6843,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7040,7 +6880,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7073,7 +6917,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7106,7 +6954,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7139,7 +6991,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7172,7 +7028,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7205,7 +7065,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7238,7 +7102,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7271,7 +7139,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7304,7 +7176,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7337,7 +7213,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7370,7 +7250,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7403,7 +7287,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7436,7 +7324,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7469,7 +7361,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7502,7 +7398,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7535,7 +7435,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7568,7 +7472,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7601,7 +7509,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7634,7 +7546,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7667,7 +7583,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7700,7 +7620,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7733,7 +7657,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7766,7 +7694,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7799,7 +7731,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7832,7 +7768,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7865,7 +7805,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7898,7 +7842,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7931,7 +7879,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7964,7 +7916,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7997,7 +7953,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8030,7 +7990,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8063,7 +8027,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8096,7 +8064,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8129,7 +8101,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8162,7 +8138,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8195,7 +8175,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8228,7 +8212,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8261,7 +8249,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8294,7 +8286,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8327,7 +8323,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8360,7 +8360,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8393,7 +8397,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8426,7 +8434,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8459,7 +8471,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8492,7 +8508,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8525,7 +8545,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8558,7 +8582,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8591,7 +8619,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8624,7 +8656,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8657,7 +8693,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8690,7 +8730,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8723,7 +8767,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8756,7 +8804,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8789,7 +8841,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8822,7 +8878,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8855,7 +8915,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8888,7 +8952,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8921,7 +8989,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8954,7 +9026,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8987,7 +9063,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9020,7 +9100,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9053,7 +9137,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9086,7 +9174,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9119,7 +9211,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9152,7 +9248,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9185,7 +9285,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9218,7 +9322,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9251,7 +9359,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9284,7 +9396,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9317,7 +9433,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9350,7 +9470,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9383,7 +9507,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9416,7 +9544,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9449,7 +9581,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9482,7 +9618,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9511,11 +9651,15 @@
         <v>-984.5846902999998</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9544,11 +9688,15 @@
         <v>-972.5846902999998</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9577,11 +9725,15 @@
         <v>-21014.5530903</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9610,11 +9762,15 @@
         <v>-21014.5530903</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9643,11 +9799,15 @@
         <v>-21014.5530903</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9676,11 +9836,15 @@
         <v>-20589.5867903</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9709,11 +9873,15 @@
         <v>-20880.5867903</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9742,15 +9910,15 @@
         <v>-19603.2676903</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="n">
-        <v>2227</v>
-      </c>
-      <c r="J261" t="n">
-        <v>2227</v>
-      </c>
-      <c r="K261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9779,17 +9947,13 @@
         <v>-20889.4035903</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="n">
-        <v>2234</v>
-      </c>
-      <c r="J262" t="n">
-        <v>2227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L262" t="n">
@@ -9820,17 +9984,13 @@
         <v>-20889.4035903</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="n">
-        <v>2227</v>
-      </c>
-      <c r="J263" t="n">
-        <v>2227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L263" t="n">
@@ -9861,17 +10021,13 @@
         <v>-20889.4035903</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="n">
-        <v>2227</v>
-      </c>
-      <c r="J264" t="n">
-        <v>2227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L264" t="n">
@@ -9905,9 +10061,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9944,9 +10098,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9980,14 +10132,10 @@
         <v>-20843.6643903</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I267" t="n">
-        <v>2227</v>
-      </c>
-      <c r="J267" t="n">
-        <v>2227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10024,9 +10172,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10063,9 +10209,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10102,9 +10246,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10141,9 +10283,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10180,9 +10320,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10219,9 +10357,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10258,9 +10394,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10297,9 +10431,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10336,9 +10468,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10375,9 +10505,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10414,9 +10542,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10453,9 +10579,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10492,9 +10616,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10531,9 +10653,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10570,9 +10690,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10609,9 +10727,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10648,9 +10764,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10687,9 +10801,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10726,9 +10838,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10765,9 +10875,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10801,14 +10909,10 @@
         <v>-18972.80290692001</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
-      </c>
-      <c r="I288" t="n">
-        <v>2237</v>
-      </c>
-      <c r="J288" t="n">
-        <v>2227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10842,14 +10946,10 @@
         <v>-18972.80290692001</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
-      </c>
-      <c r="I289" t="n">
-        <v>2241</v>
-      </c>
-      <c r="J289" t="n">
-        <v>2227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10883,14 +10983,10 @@
         <v>-18975.35960692001</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
-      </c>
-      <c r="I290" t="n">
-        <v>2241</v>
-      </c>
-      <c r="J290" t="n">
-        <v>2227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10924,14 +11020,10 @@
         <v>-18850.35960692001</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
-      </c>
-      <c r="I291" t="n">
-        <v>2236</v>
-      </c>
-      <c r="J291" t="n">
-        <v>2227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10968,9 +11060,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11007,9 +11097,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11046,9 +11134,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11085,9 +11171,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11124,9 +11208,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11163,9 +11245,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11202,9 +11282,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11241,9 +11319,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11280,9 +11356,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11319,9 +11393,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11358,9 +11430,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11397,9 +11467,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11436,9 +11504,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11475,9 +11541,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11514,9 +11578,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11553,9 +11615,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11592,9 +11652,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11631,9 +11689,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11670,9 +11726,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11709,9 +11763,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11748,9 +11800,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11787,9 +11837,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11823,14 +11871,10 @@
         <v>-15518.12893648001</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
-      </c>
-      <c r="I314" t="n">
-        <v>2246</v>
-      </c>
-      <c r="J314" t="n">
-        <v>2227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11864,14 +11908,10 @@
         <v>-20050.94193648001</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
-      </c>
-      <c r="I315" t="n">
-        <v>2245</v>
-      </c>
-      <c r="J315" t="n">
-        <v>2227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11905,14 +11945,10 @@
         <v>-19754.98243648001</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
-      </c>
-      <c r="I316" t="n">
-        <v>2236</v>
-      </c>
-      <c r="J316" t="n">
-        <v>2227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11946,14 +11982,10 @@
         <v>-19866.68233648001</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
-      </c>
-      <c r="I317" t="n">
-        <v>2245</v>
-      </c>
-      <c r="J317" t="n">
-        <v>2227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11990,9 +12022,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12029,9 +12059,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12068,9 +12096,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12107,9 +12133,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12146,9 +12170,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12185,9 +12207,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12224,9 +12244,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12263,9 +12281,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12302,9 +12318,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12341,9 +12355,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12380,9 +12392,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12419,9 +12429,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12458,9 +12466,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12497,9 +12503,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12536,9 +12540,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12575,9 +12577,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12614,9 +12614,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12653,9 +12651,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12692,9 +12688,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12731,9 +12725,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12770,9 +12762,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12809,9 +12799,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12848,9 +12836,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12887,9 +12873,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12926,9 +12910,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12965,9 +12947,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13004,9 +12984,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13043,9 +13021,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13082,9 +13058,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13121,9 +13095,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13160,9 +13132,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13199,9 +13169,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13238,9 +13206,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13277,9 +13243,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13316,9 +13280,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13355,9 +13317,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13394,9 +13354,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13433,9 +13391,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13472,9 +13428,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13508,19 +13462,17 @@
         <v>-7412.180267580008</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>2227</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L357" t="n">
-        <v>1.017900763358779</v>
+        <v>1</v>
       </c>
       <c r="M357" t="inlineStr"/>
     </row>
@@ -13547,11 +13499,15 @@
         <v>-6172.172467580008</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13580,11 +13536,15 @@
         <v>-3699.732367580008</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13613,11 +13573,15 @@
         <v>-2311.459567580008</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13646,11 +13610,15 @@
         <v>-1685.457767580008</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13679,11 +13647,15 @@
         <v>-918.5240675800082</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13712,11 +13684,15 @@
         <v>-1335.725467580008</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13745,11 +13721,15 @@
         <v>-1335.725467580008</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13778,11 +13758,15 @@
         <v>1148.142532419992</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13811,11 +13795,15 @@
         <v>973.6059324199917</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13844,11 +13832,15 @@
         <v>5776.682332419991</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13877,11 +13869,15 @@
         <v>3035.028332419991</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13910,11 +13906,15 @@
         <v>7326.966132419991</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13943,11 +13943,15 @@
         <v>7326.966132419991</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13976,11 +13980,15 @@
         <v>7326.966132419991</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14009,11 +14017,15 @@
         <v>7326.966132419991</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14042,11 +14054,15 @@
         <v>5142.709232419991</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14075,11 +14091,15 @@
         <v>7154.617832419991</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14108,11 +14128,15 @@
         <v>9536.595032419991</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14141,11 +14165,15 @@
         <v>9115.899632419991</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14174,11 +14202,15 @@
         <v>9115.899632419991</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14207,11 +14239,15 @@
         <v>7240.187632419991</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14240,11 +14276,15 @@
         <v>7515.197732419992</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14273,11 +14313,15 @@
         <v>7595.197732419992</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14306,11 +14350,15 @@
         <v>7660.197632419991</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14339,11 +14387,15 @@
         <v>10490.68513241999</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14372,11 +14424,15 @@
         <v>10490.68513241999</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14405,14 +14461,16 @@
         <v>17379.77297064999</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="n">
-        <v>1</v>
-      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L384" t="inlineStr"/>
       <c r="M384" t="inlineStr"/>
     </row>
     <row r="385">
@@ -14438,7 +14496,7 @@
         <v>17253.08157064999</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14471,7 +14529,7 @@
         <v>17184.58677064999</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14504,7 +14562,7 @@
         <v>18051.26707064999</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14537,7 +14595,7 @@
         <v>17708.93697064999</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14570,7 +14628,7 @@
         <v>17708.93697064999</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14603,7 +14661,7 @@
         <v>17708.93697064999</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14636,7 +14694,7 @@
         <v>17684.67807064999</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14669,7 +14727,7 @@
         <v>15264.07047064999</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14702,7 +14760,7 @@
         <v>12213.73037064999</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14735,7 +14793,7 @@
         <v>12396.87977064999</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14768,7 +14826,7 @@
         <v>8656.918470649995</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14801,7 +14859,7 @@
         <v>7420.660770649994</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14834,7 +14892,7 @@
         <v>6488.432888009995</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14867,7 +14925,7 @@
         <v>6488.432888009995</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14900,7 +14958,7 @@
         <v>6488.432888009995</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14933,7 +14991,7 @@
         <v>6488.432888009995</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14966,7 +15024,7 @@
         <v>6446.138588009995</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14999,7 +15057,7 @@
         <v>6884.198588009996</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15032,7 +15090,7 @@
         <v>6884.198588009996</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15065,7 +15123,7 @@
         <v>11380.48278800999</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15098,7 +15156,7 @@
         <v>9222.773988009994</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15131,7 +15189,7 @@
         <v>9222.773988009994</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15164,7 +15222,7 @@
         <v>10424.58258964999</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15197,7 +15255,7 @@
         <v>10424.58258964999</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15230,7 +15288,7 @@
         <v>8711.324889649994</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15263,7 +15321,7 @@
         <v>11317.55978964999</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15296,7 +15354,7 @@
         <v>9844.813189649993</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15329,7 +15387,7 @@
         <v>11176.18458964999</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15362,7 +15420,7 @@
         <v>10634.12478964999</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15395,7 +15453,7 @@
         <v>10634.12478964999</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15758,7 +15816,7 @@
         <v>5189.655663329992</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15791,7 +15849,7 @@
         <v>6117.330063329991</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15824,7 +15882,7 @@
         <v>6118.330063329991</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15857,7 +15915,7 @@
         <v>4405.205263329992</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15890,7 +15948,7 @@
         <v>4395.205263329992</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15923,7 +15981,7 @@
         <v>5467.605263329991</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15956,7 +16014,7 @@
         <v>5718.605263329991</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15989,7 +16047,7 @@
         <v>5718.605263329991</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16022,7 +16080,7 @@
         <v>5718.605263329991</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16055,7 +16113,7 @@
         <v>5548.711763329991</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16088,7 +16146,7 @@
         <v>6229.333263329991</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16121,7 +16179,7 @@
         <v>5659.905778179991</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16154,7 +16212,7 @@
         <v>3206.794678179991</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16187,7 +16245,7 @@
         <v>8261.945178179991</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16220,7 +16278,7 @@
         <v>8261.945178179991</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16253,7 +16311,7 @@
         <v>8910.57877817999</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16286,7 +16344,7 @@
         <v>10247.52107817999</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16319,7 +16377,7 @@
         <v>10161.80937817999</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16352,7 +16410,7 @@
         <v>10414.54627817999</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16385,7 +16443,7 @@
         <v>10285.99117817999</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16418,7 +16476,7 @@
         <v>10344.83187817999</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16451,7 +16509,7 @@
         <v>10883.83087817999</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16517,7 +16575,7 @@
         <v>10883.83087817999</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16550,7 +16608,7 @@
         <v>10883.83087817999</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16583,7 +16641,7 @@
         <v>10701.38207817999</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16616,7 +16674,7 @@
         <v>10760.72937817999</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16649,7 +16707,7 @@
         <v>10760.72937817999</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16682,7 +16740,7 @@
         <v>10202.17457817999</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16715,7 +16773,7 @@
         <v>9507.364078179991</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16748,7 +16806,7 @@
         <v>9507.364078179991</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16781,7 +16839,7 @@
         <v>9507.364078179991</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16814,7 +16872,7 @@
         <v>9507.364078179991</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16847,7 +16905,7 @@
         <v>9462.462378179991</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16880,7 +16938,7 @@
         <v>5771.820278179991</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16913,7 +16971,7 @@
         <v>5771.820278179991</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16946,7 +17004,7 @@
         <v>5771.820278179991</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16979,7 +17037,7 @@
         <v>5340.155678179991</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17012,7 +17070,7 @@
         <v>5378.939078179991</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17045,7 +17103,7 @@
         <v>7132.757078179991</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17078,7 +17136,7 @@
         <v>7132.757078179991</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17111,7 +17169,7 @@
         <v>5522.600378179992</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17144,7 +17202,7 @@
         <v>2460.109778179992</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17210,7 +17268,7 @@
         <v>2539.208478179992</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17243,7 +17301,7 @@
         <v>2610.208078179992</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17276,7 +17334,7 @@
         <v>2165.102278179992</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17375,7 +17433,7 @@
         <v>-1840.090321820008</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17507,7 +17565,7 @@
         <v>-4606.413521820008</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17639,7 +17697,7 @@
         <v>-3509.647521820008</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -22534,6 +22592,6 @@
       <c r="M630" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-23 BackTest QTUM.xlsx
@@ -1573,11 +1573,17 @@
         <v>-12406.9949036</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2173</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1612,17 @@
         <v>-12388.3919036</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2178</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1651,17 @@
         <v>-7758.025903599999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2179</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1690,17 @@
         <v>-5164.185703599998</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2197</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1733,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1770,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1807,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1844,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +1881,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +1918,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +1955,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +1992,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2029,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2066,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2103,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2140,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2177,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2214,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2251,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2288,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2325,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2362,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2399,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2432,15 @@
         <v>8154.187796400001</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2469,15 @@
         <v>7989.678996400002</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2506,15 @@
         <v>6952.762596400002</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2543,15 @@
         <v>6991.858196400001</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2580,15 @@
         <v>1536.482896400002</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2617,15 @@
         <v>1536.482896400002</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2654,15 @@
         <v>1536.482896400002</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2691,15 @@
         <v>1533.992896400002</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2728,15 @@
         <v>793.4614964000017</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2765,15 @@
         <v>303.3566964000017</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2806,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2843,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +2880,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +2917,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +2954,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +2991,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +3024,15 @@
         <v>467.9477964000016</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +3061,15 @@
         <v>467.9477964000016</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3098,15 @@
         <v>467.9477964000016</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3135,15 @@
         <v>467.9477964000016</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3172,15 @@
         <v>467.9477964000016</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3209,15 @@
         <v>-245.2456035999984</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3246,15 @@
         <v>-113.6156035999984</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3283,15 @@
         <v>-113.6156035999984</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3320,15 @@
         <v>-1033.038603599998</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3357,15 @@
         <v>-970.0512446899984</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3394,15 @@
         <v>-1174.145144689998</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3431,15 @@
         <v>-1174.145144689998</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3472,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3509,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3546,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3583,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3620,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3657,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3694,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3731,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3768,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3805,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3842,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +3879,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +3916,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +3953,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +3990,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +4027,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +4064,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +4101,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +4138,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +4175,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4212,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4249,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4286,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4323,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4360,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4397,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4434,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4471,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4508,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4545,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4582,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4619,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4656,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4693,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4730,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4767,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4804,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4841,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +4878,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +4915,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +4952,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +4989,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +5026,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +5063,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +5100,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +5137,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +5174,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +5211,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +5248,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5285,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5322,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5359,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5396,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5433,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5470,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5507,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5544,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5581,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5618,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5651,15 @@
         <v>-1444.640964329999</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5692,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5725,15 @@
         <v>1745.327835670001</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5762,15 @@
         <v>2061.217496810001</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5799,15 @@
         <v>2061.217496810001</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5836,15 @@
         <v>2181.871496810001</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5873,15 @@
         <v>2070.006096810001</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5910,15 @@
         <v>1920.340996810001</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5947,15 @@
         <v>1920.340996810001</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5984,15 @@
         <v>1918.340996810001</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +6021,15 @@
         <v>1918.340996810001</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +6058,15 @@
         <v>2418.34099681</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +6095,15 @@
         <v>2418.34099681</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +6132,15 @@
         <v>2314.85779681</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +6169,15 @@
         <v>3016.85779681</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +6206,15 @@
         <v>2976.21749681</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +6243,15 @@
         <v>2976.21749681</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +6280,15 @@
         <v>2646.95039681</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +6317,15 @@
         <v>2789.64997905</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +6354,15 @@
         <v>2607.49787905</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +6391,15 @@
         <v>2607.49787905</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +6428,15 @@
         <v>820.3169275600003</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +6465,15 @@
         <v>2161.35282756</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +6502,15 @@
         <v>2144.35282756</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +6539,15 @@
         <v>2146.3863097</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +6576,15 @@
         <v>2068.5997097</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +6613,15 @@
         <v>1666.3332097</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6650,15 @@
         <v>1666.3332097</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6127,11 +6687,15 @@
         <v>1666.3332097</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6724,15 @@
         <v>1181.0083097</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6197,7 +6765,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6230,7 +6802,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6263,7 +6839,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6296,7 +6876,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6329,7 +6913,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6362,7 +6950,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6395,7 +6987,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6428,7 +7024,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6461,7 +7061,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6494,7 +7098,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6527,7 +7135,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +7172,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6593,7 +7209,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6626,7 +7246,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6659,7 +7283,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6692,7 +7320,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6725,7 +7357,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +7394,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6791,7 +7431,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6824,7 +7468,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6857,7 +7505,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6890,7 +7542,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6923,7 +7579,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6956,7 +7616,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6989,7 +7653,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7022,7 +7690,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7055,7 +7727,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7088,7 +7764,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7121,7 +7801,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7154,7 +7838,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7187,7 +7875,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7220,7 +7912,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7253,7 +7949,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7286,7 +7986,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7319,7 +8023,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7352,7 +8060,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7385,7 +8097,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7418,7 +8134,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7451,7 +8171,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7484,7 +8208,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +8245,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7550,7 +8282,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7583,7 +8319,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +8356,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +8393,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +8430,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +8467,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +8504,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +8541,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7814,7 +8578,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +8615,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7880,7 +8652,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8689,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +8726,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8763,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8800,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8837,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8874,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8911,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +8948,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8177,7 +8985,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8210,7 +9022,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8243,7 +9059,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8276,7 +9096,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8309,7 +9133,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8342,7 +9170,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8375,7 +9207,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8408,7 +9244,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8441,7 +9281,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8474,7 +9318,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8507,7 +9355,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8540,7 +9392,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8573,7 +9429,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8606,7 +9466,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8639,7 +9503,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8672,7 +9540,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8705,7 +9577,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8738,7 +9614,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8771,7 +9651,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8800,11 +9684,15 @@
         <v>-972.5846902999998</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8833,11 +9721,15 @@
         <v>-21014.5530903</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8866,11 +9758,15 @@
         <v>-21014.5530903</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8903,7 +9799,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8936,7 +9836,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8969,7 +9873,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9002,7 +9910,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9035,7 +9947,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +9984,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9101,7 +10021,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9134,7 +10058,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9167,7 +10095,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9200,7 +10132,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9233,7 +10169,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9266,7 +10206,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9299,7 +10243,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9332,7 +10280,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9365,7 +10317,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9398,7 +10354,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9431,7 +10391,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9464,7 +10428,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9497,7 +10465,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9530,7 +10502,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9563,7 +10539,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9596,7 +10576,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9629,7 +10613,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9662,7 +10650,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9695,7 +10687,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9724,11 +10720,15 @@
         <v>-19793.12961894001</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9757,11 +10757,15 @@
         <v>-19057.41921894001</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9790,11 +10794,15 @@
         <v>-19057.41921894001</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9823,11 +10831,15 @@
         <v>-20276.28911894001</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9856,11 +10868,17 @@
         <v>-20278.55261894001</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>2243</v>
+      </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9889,11 +10907,17 @@
         <v>-18972.80290692001</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>2237</v>
+      </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9922,11 +10946,17 @@
         <v>-18972.80290692001</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>2241</v>
+      </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9955,11 +10985,17 @@
         <v>-18975.35960692001</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>2241</v>
+      </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9988,11 +11024,17 @@
         <v>-18850.35960692001</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>2236</v>
+      </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10021,11 +11063,15 @@
         <v>-18950.35960692001</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10054,11 +11100,15 @@
         <v>-18948.87232446001</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10087,11 +11137,15 @@
         <v>-18886.53692446001</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10120,11 +11174,15 @@
         <v>-17729.57752446001</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10153,11 +11211,15 @@
         <v>-17731.57752446001</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10186,11 +11248,17 @@
         <v>-15859.15262446001</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>2237</v>
+      </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10219,11 +11287,17 @@
         <v>-15859.15262446001</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>2242</v>
+      </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10252,11 +11326,15 @@
         <v>-15981.44512446001</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10285,11 +11363,15 @@
         <v>-14909.33232446001</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10318,11 +11400,15 @@
         <v>-14911.73802446001</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10351,11 +11437,15 @@
         <v>-14907.28882446001</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10384,11 +11474,17 @@
         <v>-14950.32972446001</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>2247</v>
+      </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10417,11 +11513,15 @@
         <v>-14951.26513648001</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10450,11 +11550,15 @@
         <v>-14951.26513648001</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10483,11 +11587,15 @@
         <v>-14951.26513648001</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10516,11 +11624,15 @@
         <v>-16297.60283648001</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10549,11 +11661,15 @@
         <v>-15744.46693648001</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10582,11 +11698,15 @@
         <v>-15744.46693648001</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10615,11 +11735,17 @@
         <v>-15809.01693648001</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>2246</v>
+      </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10656,7 +11782,7 @@
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L311" t="n">
@@ -10687,9 +11813,11 @@
         <v>-15298.99623648001</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>2246</v>
+      </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
@@ -10724,9 +11852,11 @@
         <v>-15298.99623648001</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>2246</v>
+      </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
@@ -10761,9 +11891,11 @@
         <v>-15518.12893648001</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>2246</v>
+      </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
@@ -10798,9 +11930,11 @@
         <v>-20050.94193648001</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>2245</v>
+      </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
@@ -10835,9 +11969,11 @@
         <v>-19754.98243648001</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>2236</v>
+      </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
@@ -10872,9 +12008,11 @@
         <v>-19866.68233648001</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>2245</v>
+      </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
@@ -10909,9 +12047,11 @@
         <v>-18966.17963648001</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>2244</v>
+      </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
@@ -10946,9 +12086,11 @@
         <v>-18966.17963648001</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>2247</v>
+      </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
@@ -10983,9 +12125,11 @@
         <v>-18123.63773648001</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>2247</v>
+      </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
@@ -11020,9 +12164,11 @@
         <v>-18133.28403648001</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>2248</v>
+      </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
@@ -11057,16 +12203,20 @@
         <v>-18103.83673648001</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>2247</v>
+      </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L322" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
       <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
@@ -11092,11 +12242,17 @@
         <v>-18645.73953648001</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>2248</v>
+      </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11125,11 +12281,17 @@
         <v>-18648.75233648001</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>2247</v>
+      </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11158,11 +12320,17 @@
         <v>-17030.87923648001</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>2239</v>
+      </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11191,11 +12359,17 @@
         <v>-17253.04093648001</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>2247</v>
+      </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11224,11 +12398,17 @@
         <v>-15888.52157734001</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>2245</v>
+      </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11257,11 +12437,17 @@
         <v>-15889.50457734001</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>2246</v>
+      </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11290,11 +12476,17 @@
         <v>-15583.98217734001</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>2241</v>
+      </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11323,11 +12515,17 @@
         <v>-14397.31577734001</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>2246</v>
+      </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11356,11 +12554,17 @@
         <v>-13557.35427734001</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>2248</v>
+      </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11389,11 +12593,17 @@
         <v>-13658.08097734001</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>2250</v>
+      </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11422,11 +12632,17 @@
         <v>-13435.90196758001</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>2248</v>
+      </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11455,11 +12671,17 @@
         <v>-13435.90196758001</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>2252</v>
+      </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11488,11 +12710,17 @@
         <v>-13429.37086758001</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>2252</v>
+      </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11521,11 +12749,17 @@
         <v>-13386.07406758001</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>2253</v>
+      </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11554,11 +12788,17 @@
         <v>-13386.07406758001</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>2256</v>
+      </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11587,11 +12827,17 @@
         <v>-13286.07406758001</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>2256</v>
+      </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11620,11 +12866,17 @@
         <v>-13286.07406758001</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>2257</v>
+      </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11653,11 +12905,17 @@
         <v>-13286.07406758001</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>2257</v>
+      </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11686,11 +12944,17 @@
         <v>-13286.07406758001</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>2257</v>
+      </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11719,11 +12983,17 @@
         <v>-13286.07406758001</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>2257</v>
+      </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11752,11 +13022,17 @@
         <v>-12378.78816758001</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>2257</v>
+      </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11785,11 +13061,17 @@
         <v>-12340.66836758001</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>2258</v>
+      </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11818,11 +13100,17 @@
         <v>-12340.66836758001</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>2259</v>
+      </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11851,11 +13139,17 @@
         <v>-12162.81576758001</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>2259</v>
+      </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11884,11 +13178,17 @@
         <v>-12402.16476758001</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>2261</v>
+      </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11917,11 +13217,17 @@
         <v>-12402.16476758001</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>2260</v>
+      </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11950,11 +13256,17 @@
         <v>-12402.16476758001</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>2260</v>
+      </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11983,11 +13295,17 @@
         <v>-12164.59816758001</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>2260</v>
+      </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12016,11 +13334,17 @@
         <v>-12164.59816758001</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>2264</v>
+      </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12049,11 +13373,17 @@
         <v>-11476.51366758001</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>2264</v>
+      </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12082,11 +13412,17 @@
         <v>-10772.27236758001</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>2267</v>
+      </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12115,11 +13451,17 @@
         <v>-10077.49786758001</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>2268</v>
+      </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12148,11 +13490,17 @@
         <v>-7562.308767580009</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>2270</v>
+      </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12185,7 +13533,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12218,7 +13570,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12251,7 +13607,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12284,7 +13644,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12317,7 +13681,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12350,7 +13718,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12383,7 +13755,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12416,7 +13792,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12449,7 +13829,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12482,7 +13866,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12515,7 +13903,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12548,7 +13940,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12581,7 +13977,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12614,7 +14014,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12647,7 +14051,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12680,7 +14088,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12713,7 +14125,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12746,7 +14162,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12779,7 +14199,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12812,7 +14236,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12845,7 +14273,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12878,7 +14310,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12911,7 +14347,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12944,7 +14384,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12977,7 +14421,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13010,7 +14458,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13039,14 +14491,16 @@
         <v>10490.68513241999</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="n">
-        <v>1</v>
-      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L382" t="inlineStr"/>
       <c r="M382" t="inlineStr"/>
     </row>
     <row r="383">
@@ -13072,7 +14526,7 @@
         <v>10490.68513241999</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13105,7 +14559,7 @@
         <v>17379.77297064999</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13138,7 +14592,7 @@
         <v>17253.08157064999</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13171,7 +14625,7 @@
         <v>17184.58677064999</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13204,7 +14658,7 @@
         <v>18051.26707064999</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13237,7 +14691,7 @@
         <v>17708.93697064999</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13270,7 +14724,7 @@
         <v>17708.93697064999</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13303,7 +14757,7 @@
         <v>17708.93697064999</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13336,7 +14790,7 @@
         <v>17684.67807064999</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13369,7 +14823,7 @@
         <v>15264.07047064999</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13402,7 +14856,7 @@
         <v>12213.73037064999</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13435,7 +14889,7 @@
         <v>12396.87977064999</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13468,7 +14922,7 @@
         <v>8656.918470649995</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13501,7 +14955,7 @@
         <v>7420.660770649994</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13534,7 +14988,7 @@
         <v>6488.432888009995</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13567,7 +15021,7 @@
         <v>6488.432888009995</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -19474,7 +20928,7 @@
         <v>-12711.20632182001</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19507,7 +20961,7 @@
         <v>-13121.50612182001</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19540,7 +20994,7 @@
         <v>-12768.80672182001</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20497,7 +21951,7 @@
         <v>-13953.46572182001</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20662,11 +22116,17 @@
         <v>-17510.79652182001</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>2231</v>
+      </c>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20695,11 +22155,17 @@
         <v>-14280.86272182001</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>2225</v>
+      </c>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20728,11 +22194,15 @@
         <v>-14252.86272182001</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20761,11 +22231,17 @@
         <v>-14257.86272182001</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>2229</v>
+      </c>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20794,11 +22270,17 @@
         <v>-20718.33842182001</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>2227</v>
+      </c>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20827,11 +22309,17 @@
         <v>-20153.43842182001</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>2220</v>
+      </c>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20860,11 +22348,17 @@
         <v>-21602.90842182001</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>2222</v>
+      </c>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20893,11 +22387,17 @@
         <v>-22224.39882182001</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>2219</v>
+      </c>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20931,10 +22431,12 @@
       <c r="I621" t="n">
         <v>2217</v>
       </c>
-      <c r="J621" t="n">
-        <v>2217</v>
-      </c>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20968,12 +22470,10 @@
       <c r="I622" t="n">
         <v>2217</v>
       </c>
-      <c r="J622" t="n">
-        <v>2217</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L622" t="n">
@@ -21009,12 +22509,10 @@
       <c r="I623" t="n">
         <v>2217</v>
       </c>
-      <c r="J623" t="n">
-        <v>2217</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L623" t="n">
@@ -21045,12 +22543,12 @@
         <v>-22020.31422182001</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>2217</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>2222</v>
+      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21089,9 +22587,7 @@
       <c r="I625" t="n">
         <v>2217</v>
       </c>
-      <c r="J625" t="n">
-        <v>2217</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21130,9 +22626,7 @@
       <c r="I626" t="n">
         <v>2218</v>
       </c>
-      <c r="J626" t="n">
-        <v>2217</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21171,9 +22665,7 @@
       <c r="I627" t="n">
         <v>2228</v>
       </c>
-      <c r="J627" t="n">
-        <v>2217</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21212,9 +22704,7 @@
       <c r="I628" t="n">
         <v>2225</v>
       </c>
-      <c r="J628" t="n">
-        <v>2217</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21253,9 +22743,7 @@
       <c r="I629" t="n">
         <v>2225</v>
       </c>
-      <c r="J629" t="n">
-        <v>2217</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21294,9 +22782,7 @@
       <c r="I630" t="n">
         <v>2225</v>
       </c>
-      <c r="J630" t="n">
-        <v>2217</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
